--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5218183333333334</v>
+      </c>
+      <c r="H2">
+        <v>1.565455</v>
+      </c>
+      <c r="I2">
+        <v>0.11537035205514</v>
+      </c>
+      <c r="J2">
+        <v>0.11537035205514</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.1295</v>
-      </c>
-      <c r="H2">
-        <v>0.3885</v>
-      </c>
-      <c r="I2">
-        <v>0.03378978388280364</v>
-      </c>
-      <c r="J2">
-        <v>0.03378978388280364</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.4118343333333334</v>
+        <v>0.09168033333333332</v>
       </c>
       <c r="N2">
-        <v>1.235503</v>
+        <v>0.275041</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1820807603088688</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1820807603088689</v>
       </c>
       <c r="Q2">
-        <v>0.05333254616666667</v>
+        <v>0.04784047873944444</v>
       </c>
       <c r="R2">
-        <v>0.4799929155</v>
+        <v>0.430564308655</v>
       </c>
       <c r="S2">
-        <v>0.03378978388280364</v>
+        <v>0.02100672141930176</v>
       </c>
       <c r="T2">
-        <v>0.03378978388280364</v>
+        <v>0.02100672141930176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.300224333333333</v>
+        <v>0.5218183333333334</v>
       </c>
       <c r="H3">
-        <v>3.900673</v>
+        <v>1.565455</v>
       </c>
       <c r="I3">
-        <v>0.3392609978571102</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="J3">
-        <v>0.3392609978571102</v>
+        <v>0.11537035205514</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,27 +623,27 @@
         <v>1.235503</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="Q3">
-        <v>0.5354770215021112</v>
+        <v>0.2149027054294445</v>
       </c>
       <c r="R3">
-        <v>4.819293193519</v>
+        <v>1.934124348865</v>
       </c>
       <c r="S3">
-        <v>0.3392609978571102</v>
+        <v>0.09436363063583826</v>
       </c>
       <c r="T3">
-        <v>0.3392609978571102</v>
+        <v>0.09436363063583826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.256539666666666</v>
+        <v>1.300224333333333</v>
       </c>
       <c r="H4">
-        <v>6.769619</v>
+        <v>3.900673</v>
       </c>
       <c r="I4">
-        <v>0.5887875494952928</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="J4">
-        <v>0.5887875494952928</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4118343333333334</v>
+        <v>0.09168033333333332</v>
       </c>
       <c r="N4">
-        <v>1.235503</v>
+        <v>0.275041</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1820807603088688</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1820807603088689</v>
       </c>
       <c r="Q4">
-        <v>0.9293205092618888</v>
+        <v>0.1192050002881111</v>
       </c>
       <c r="R4">
-        <v>8.363884583356999</v>
+        <v>1.072845002593</v>
       </c>
       <c r="S4">
-        <v>0.5887875494952928</v>
+        <v>0.05234283391013606</v>
       </c>
       <c r="T4">
-        <v>0.5887875494952928</v>
+        <v>0.05234283391013607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1462553333333333</v>
+        <v>1.300224333333333</v>
       </c>
       <c r="H5">
-        <v>0.438766</v>
+        <v>3.900673</v>
       </c>
       <c r="I5">
-        <v>0.03816166876479336</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="J5">
-        <v>0.03816166876479336</v>
+        <v>0.2874704269761693</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,22 +747,270 @@
         <v>1.235503</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="Q5">
-        <v>0.06023296769977778</v>
+        <v>0.5354770215021111</v>
       </c>
       <c r="R5">
-        <v>0.542096709298</v>
+        <v>4.819293193519</v>
       </c>
       <c r="S5">
-        <v>0.03816166876479336</v>
+        <v>0.2351275930660333</v>
       </c>
       <c r="T5">
-        <v>0.03816166876479336</v>
+        <v>0.2351275930660333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.600134333333333</v>
+      </c>
+      <c r="H6">
+        <v>7.800402999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5748713570699702</v>
+      </c>
+      <c r="J6">
+        <v>0.5748713570699702</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.09168033333333332</v>
+      </c>
+      <c r="N6">
+        <v>0.275041</v>
+      </c>
+      <c r="O6">
+        <v>0.1820807603088688</v>
+      </c>
+      <c r="P6">
+        <v>0.1820807603088689</v>
+      </c>
+      <c r="Q6">
+        <v>0.2383811823914444</v>
+      </c>
+      <c r="R6">
+        <v>2.145430641523</v>
+      </c>
+      <c r="S6">
+        <v>0.1046730137750914</v>
+      </c>
+      <c r="T6">
+        <v>0.1046730137750914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.600134333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.800402999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5748713570699702</v>
+      </c>
+      <c r="J7">
+        <v>0.5748713570699702</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.235503</v>
+      </c>
+      <c r="O7">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="P7">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="Q7">
+        <v>1.070824589745444</v>
+      </c>
+      <c r="R7">
+        <v>9.637421307708999</v>
+      </c>
+      <c r="S7">
+        <v>0.4701983432948788</v>
+      </c>
+      <c r="T7">
+        <v>0.4701983432948788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1008076666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.302423</v>
+      </c>
+      <c r="I8">
+        <v>0.02228786389872057</v>
+      </c>
+      <c r="J8">
+        <v>0.02228786389872057</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09168033333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.275041</v>
+      </c>
+      <c r="O8">
+        <v>0.1820807603088688</v>
+      </c>
+      <c r="P8">
+        <v>0.1820807603088689</v>
+      </c>
+      <c r="Q8">
+        <v>0.009242080482555554</v>
+      </c>
+      <c r="R8">
+        <v>0.083178724343</v>
+      </c>
+      <c r="S8">
+        <v>0.00405819120433963</v>
+      </c>
+      <c r="T8">
+        <v>0.004058191204339631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1008076666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.302423</v>
+      </c>
+      <c r="I9">
+        <v>0.02228786389872057</v>
+      </c>
+      <c r="J9">
+        <v>0.02228786389872057</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.235503</v>
+      </c>
+      <c r="O9">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="P9">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="Q9">
+        <v>0.04151605819655556</v>
+      </c>
+      <c r="R9">
+        <v>0.373644523769</v>
+      </c>
+      <c r="S9">
+        <v>0.01822967269438094</v>
+      </c>
+      <c r="T9">
+        <v>0.01822967269438094</v>
       </c>
     </row>
   </sheetData>
